--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\Temple_Management_System\temple_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-master\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC550832-C45B-48C9-A83D-F457EE3DCCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040B65A-E15D-4CA9-B03F-84C85A5E2C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>楊建文</t>
   </si>
@@ -135,6 +135,46 @@
   </si>
   <si>
     <t>89-04-28</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>89-05-24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>89-03-22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>89-07-21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>89-09-11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政答</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>林安語</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳財旺</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>71-12-21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>75-08-25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-02-11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1161,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1178,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1195,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1209,16 +1249,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1226,120 +1266,171 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-master\temple_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-9d9a144766470935a368eb84e13128f691fc281d\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040B65A-E15D-4CA9-B03F-84C85A5E2C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D7E80-9942-4DD5-BB34-FED9A8E81771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>楊建文</t>
   </si>
@@ -134,47 +134,54 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>89-04-28</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>89-05-24</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>89-03-22</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>89-07-21</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>89-09-11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>王政答</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>林安語</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳財旺</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>71-12-21</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>75-08-25</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>73-02-11</t>
+    <t>31-12-31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59-8-13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>79-1-14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>56-4-23</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-2-22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-3-18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>58-4-19</t>
+  </si>
+  <si>
+    <t>68-01-05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>92-04-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>83-10-11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43-04-14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>79-2-31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>49-1-14</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1130,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1184,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1201,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1218,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1249,16 +1256,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1266,171 +1273,120 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-9d9a144766470935a368eb84e13128f691fc281d\temple_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-master(old_version)\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D7E80-9942-4DD5-BB34-FED9A8E81771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D24BC92-46E7-485D-8531-240B8409E42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="1200" windowWidth="28740" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
-    <t>楊建文</t>
-  </si>
-  <si>
     <t>子</t>
   </si>
   <si>
@@ -177,11 +174,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>79-2-31</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>49-1-14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>79-5-12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊建文周</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1140,10 +1141,10 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -1154,240 +1155,240 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-master(old_version)\temple_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\重來幹\testing\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D24BC92-46E7-485D-8531-240B8409E42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBDBD8-3933-4DD9-81DB-4B829DF09B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1200" windowWidth="28740" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>子</t>
   </si>
@@ -183,6 +183,54 @@
   </si>
   <si>
     <t>楊建文周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-10-12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>末</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1138,22 +1186,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1169,8 +1217,11 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1186,8 +1237,11 @@
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1203,8 +1257,11 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1220,8 +1277,11 @@
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1237,8 +1297,11 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1254,8 +1317,11 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1271,8 +1337,11 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,8 +1357,11 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,8 +1377,11 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,8 +1397,11 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,8 +1417,11 @@
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1356,8 +1437,11 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1373,8 +1457,11 @@
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1389,11 +1476,34 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\重來幹\testing\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBDBD8-3933-4DD9-81DB-4B829DF09B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18183D-7B11-4BB3-992D-7442632ED05F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>子</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>末</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳xx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-12-12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1186,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1501,6 +1513,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\重來幹\testing\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18183D-7B11-4BB3-992D-7442632ED05F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AD51BF-81C5-4A1C-BF26-21ADD32FCEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,17 +147,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>44-2-22</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>31-3-18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>58-4-19</t>
-  </si>
-  <si>
     <t>68-01-05</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -174,14 +163,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>49-1-14</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>79-5-12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>楊建文周</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -243,6 +224,26 @@
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉-5-12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>49-1-吉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉-吉-吉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-吉-18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-2-吉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1202,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1230,15 +1231,15 @@
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1250,7 +1251,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1258,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1270,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1290,7 +1291,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1298,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1310,7 +1311,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1318,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1330,7 +1331,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,7 +1351,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1390,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,7 +1411,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1430,7 +1431,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1438,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1450,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1470,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1490,47 +1491,47 @@
         <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\重來幹\testing\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AD51BF-81C5-4A1C-BF26-21ADD32FCEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57344BDF-F621-4D89-827A-B9BCE6B9D7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26880" yWindow="1920" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>子</t>
   </si>
@@ -199,14 +199,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>新人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>34-10-12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>女</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -215,18 +207,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>陳xx</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>34-12-12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>吉-5-12</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -244,6 +224,36 @@
   </si>
   <si>
     <t>44-2-吉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111111112</t>
+  </si>
+  <si>
+    <t>34-10-14</t>
+  </si>
+  <si>
+    <t>陳新人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>許新人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科新人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-10-吉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-吉-13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111111112</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1199,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1259,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1279,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1299,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1319,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1496,41 +1506,61 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
